--- a/Resultados/Material + Ano + Estrutura/ResNet/Tentativa 1/Do Zero.xlsx
+++ b/Resultados/Material + Ano + Estrutura/ResNet/Tentativa 1/Do Zero.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\beatr\Documents\GitHub\SAFENET-Bea\Resultados\Material + Ano + Estrutura\ResNet\Tentativa 1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51EE2ED3-B25D-4EE7-B74C-DCE926B1E648}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB416230-E2CC-40D3-B689-304D914433D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{44EB1693-29A4-4AD6-9832-A8AEAD2DC94E}"/>
   </bookViews>
@@ -464,7 +464,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -596,9 +596,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
@@ -608,11 +605,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1964,7 +1958,7 @@
   <dimension ref="N1:O44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O2" sqref="O2"/>
+      <selection activeCell="O14" sqref="O14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2070,7 +2064,10 @@
     </row>
     <row r="13" spans="14:15" x14ac:dyDescent="0.35">
       <c r="N13"/>
-      <c r="O13"/>
+      <c r="O13">
+        <f>COUNTIF(O2:O12,"&gt;=0,9")</f>
+        <v>3</v>
+      </c>
     </row>
     <row r="14" spans="14:15" x14ac:dyDescent="0.35">
       <c r="N14"/>
@@ -2841,8 +2838,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BB454C8-93BE-43D4-99C2-717E269EE6C9}">
   <dimension ref="A1:AA35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+    <sheetView topLeftCell="O1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B16" sqref="B16:H20"/>
     </sheetView>
   </sheetViews>
@@ -2920,12 +2917,12 @@
       <c r="V1" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="X1" s="53" t="s">
+      <c r="X1" s="56" t="s">
         <v>27</v>
       </c>
-      <c r="Y1" s="53"/>
-      <c r="Z1" s="53"/>
-      <c r="AA1" s="53"/>
+      <c r="Y1" s="56"/>
+      <c r="Z1" s="56"/>
+      <c r="AA1" s="56"/>
     </row>
     <row r="2" spans="1:27" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="52" t="s">
@@ -3372,7 +3369,7 @@
       </c>
     </row>
     <row r="8" spans="1:27" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="54" t="s">
+      <c r="A8" s="53" t="s">
         <v>31</v>
       </c>
       <c r="B8" s="22">
@@ -3449,7 +3446,7 @@
       </c>
     </row>
     <row r="9" spans="1:27" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="55"/>
+      <c r="A9" s="54"/>
       <c r="B9" s="18">
         <v>1</v>
       </c>
@@ -3493,7 +3490,7 @@
       </c>
     </row>
     <row r="10" spans="1:27" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="56"/>
+      <c r="A10" s="55"/>
       <c r="B10" s="18">
         <v>2</v>
       </c>
@@ -3572,11 +3569,11 @@
         <v>0</v>
       </c>
       <c r="M11" s="21" t="str">
-        <f>COUNTIF(O11,$O$10)+COUNTIF(P11,$P$10)+COUNTIF(Q11,$Q$10)&amp;" ("&amp; IF(O11=$O$10,"Estrutura, ","") &amp; IF(P11=$P$10,"Ano, ","") &amp;IF(Q11=$Q$10,"Material","") &amp; IF(OR(O11=$O$10,P11=$P$10,Q11=$Q$10),"","Nenhuma") &amp;")"</f>
+        <f t="shared" ref="M11:M16" si="18">COUNTIF(O11,$O$10)+COUNTIF(P11,$P$10)+COUNTIF(Q11,$Q$10)&amp;" ("&amp; IF(O11=$O$10,"Estrutura, ","") &amp; IF(P11=$P$10,"Ano, ","") &amp;IF(Q11=$Q$10,"Material","") &amp; IF(OR(O11=$O$10,P11=$P$10,Q11=$Q$10),"","Nenhuma") &amp;")"</f>
         <v>0 (Nenhuma)</v>
       </c>
       <c r="N11" s="19" t="str">
-        <f>ROUND(K11/SUM($K$10:$K$16)*100,0) &amp;"%"</f>
+        <f t="shared" ref="N11:N16" si="19">ROUND(K11/SUM($K$10:$K$16)*100,0) &amp;"%"</f>
         <v>5%</v>
       </c>
       <c r="O11" s="26">
@@ -3605,7 +3602,7 @@
       </c>
     </row>
     <row r="12" spans="1:27" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="54" t="s">
+      <c r="A12" s="53" t="s">
         <v>32</v>
       </c>
       <c r="B12" s="22">
@@ -3638,11 +3635,11 @@
         <v>4</v>
       </c>
       <c r="M12" s="21" t="str">
-        <f>COUNTIF(O12,$O$10)+COUNTIF(P12,$P$10)+COUNTIF(Q12,$Q$10)&amp;" ("&amp; IF(O12=$O$10,"Estrutura, ","") &amp; IF(P12=$P$10,"Ano, ","") &amp;IF(Q12=$Q$10,"Material","") &amp; IF(OR(O12=$O$10,P12=$P$10,Q12=$Q$10),"","Nenhuma") &amp;")"</f>
+        <f t="shared" si="18"/>
         <v>1 (Material)</v>
       </c>
       <c r="N12" s="19" t="str">
-        <f>ROUND(K12/SUM($K$10:$K$16)*100,0) &amp;"%"</f>
+        <f t="shared" si="19"/>
         <v>5%</v>
       </c>
       <c r="O12" s="26" t="str">
@@ -3671,7 +3668,7 @@
       </c>
     </row>
     <row r="13" spans="1:27" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="55"/>
+      <c r="A13" s="54"/>
       <c r="B13" s="18">
         <v>4</v>
       </c>
@@ -3706,11 +3703,11 @@
         <v>6</v>
       </c>
       <c r="M13" s="21" t="str">
-        <f>COUNTIF(O13,$O$10)+COUNTIF(P13,$P$10)+COUNTIF(Q13,$Q$10)&amp;" ("&amp; IF(O13=$O$10,"Estrutura, ","") &amp; IF(P13=$P$10,"Ano, ","") &amp;IF(Q13=$Q$10,"Material","") &amp; IF(OR(O13=$O$10,P13=$P$10,Q13=$Q$10),"","Nenhuma") &amp;")"</f>
+        <f t="shared" si="18"/>
         <v>1 (Material)</v>
       </c>
       <c r="N13" s="19" t="str">
-        <f>ROUND(K13/SUM($K$10:$K$16)*100,0) &amp;"%"</f>
+        <f t="shared" si="19"/>
         <v>35%</v>
       </c>
       <c r="O13" s="26" t="str">
@@ -3727,7 +3724,7 @@
       </c>
     </row>
     <row r="14" spans="1:27" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="56"/>
+      <c r="A14" s="55"/>
       <c r="B14" s="18">
         <v>2</v>
       </c>
@@ -3762,11 +3759,11 @@
         <v>8</v>
       </c>
       <c r="M14" s="21" t="str">
-        <f>COUNTIF(O14,$O$10)+COUNTIF(P14,$P$10)+COUNTIF(Q14,$Q$10)&amp;" ("&amp; IF(O14=$O$10,"Estrutura, ","") &amp; IF(P14=$P$10,"Ano, ","") &amp;IF(Q14=$Q$10,"Material","") &amp; IF(OR(O14=$O$10,P14=$P$10,Q14=$Q$10),"","Nenhuma") &amp;")"</f>
+        <f t="shared" si="18"/>
         <v>2 (Estrutura, Material)</v>
       </c>
       <c r="N14" s="19" t="str">
-        <f>ROUND(K14/SUM($K$10:$K$16)*100,0) &amp;"%"</f>
+        <f t="shared" si="19"/>
         <v>10%</v>
       </c>
       <c r="O14" s="26" t="str">
@@ -3791,11 +3788,11 @@
         <v>9</v>
       </c>
       <c r="M15" s="21" t="str">
-        <f>COUNTIF(O15,$O$10)+COUNTIF(P15,$P$10)+COUNTIF(Q15,$Q$10)&amp;" ("&amp; IF(O15=$O$10,"Estrutura, ","") &amp; IF(P15=$P$10,"Ano, ","") &amp;IF(Q15=$Q$10,"Material","") &amp; IF(OR(O15=$O$10,P15=$P$10,Q15=$Q$10),"","Nenhuma") &amp;")"</f>
+        <f t="shared" si="18"/>
         <v>2 (Ano, Material)</v>
       </c>
       <c r="N15" s="19" t="str">
-        <f>ROUND(K15/SUM($K$10:$K$16)*100,0) &amp;"%"</f>
+        <f t="shared" si="19"/>
         <v>10%</v>
       </c>
       <c r="O15" s="26" t="str">
@@ -3846,11 +3843,11 @@
         <v>10</v>
       </c>
       <c r="M16" s="21" t="str">
-        <f>COUNTIF(O16,$O$10)+COUNTIF(P16,$P$10)+COUNTIF(Q16,$Q$10)&amp;" ("&amp; IF(O16=$O$10,"Estrutura, ","") &amp; IF(P16=$P$10,"Ano, ","") &amp;IF(Q16=$Q$10,"Material","") &amp; IF(OR(O16=$O$10,P16=$P$10,Q16=$Q$10),"","Nenhuma") &amp;")"</f>
+        <f t="shared" si="18"/>
         <v>1 (Material)</v>
       </c>
       <c r="N16" s="19" t="str">
-        <f>ROUND(K16/SUM($K$10:$K$16)*100,0) &amp;"%"</f>
+        <f t="shared" si="19"/>
         <v>20%</v>
       </c>
       <c r="O16" s="26" t="str">
@@ -3904,7 +3901,7 @@
         <v>8</v>
       </c>
       <c r="D18" s="21" t="str">
-        <f t="shared" ref="D18:D20" si="18">COUNTIF(F18,$F$16)+COUNTIF(G18,$G$16)+COUNTIF(H18,$H$16)&amp;" ("&amp; IF(F18=$F$16,"Estrutura, ","") &amp; IF(G18=$G$16,"Ano, ","") &amp;IF(H18=$H$16,"Material","") &amp; IF(OR(F18=$F$16,G18=$G$16,H18=$H$16),"","Nenhuma") &amp;")"</f>
+        <f t="shared" ref="D18:D20" si="20">COUNTIF(F18,$F$16)+COUNTIF(G18,$G$16)+COUNTIF(H18,$H$16)&amp;" ("&amp; IF(F18=$F$16,"Estrutura, ","") &amp; IF(G18=$G$16,"Ano, ","") &amp;IF(H18=$H$16,"Material","") &amp; IF(OR(F18=$F$16,G18=$G$16,H18=$H$16),"","Nenhuma") &amp;")"</f>
         <v>1 (Material)</v>
       </c>
       <c r="E18" s="19" t="str">
@@ -3923,7 +3920,7 @@
         <f>VLOOKUP(C18,$S$1:$V$12,4,FALSE)</f>
         <v>Betão Armado</v>
       </c>
-      <c r="J18" s="54" t="s">
+      <c r="J18" s="53" t="s">
         <v>59</v>
       </c>
       <c r="K18" s="22">
@@ -3942,11 +3939,11 @@
         <v>Tabuleiro simples/apoiado</v>
       </c>
       <c r="P18" s="25" t="str">
-        <f t="shared" ref="P18:P22" si="19">VLOOKUP(L18,$S$1:$V$12,3,FALSE)</f>
+        <f t="shared" ref="P18:P22" si="21">VLOOKUP(L18,$S$1:$V$12,3,FALSE)</f>
         <v>Depois de 1983</v>
       </c>
       <c r="Q18" s="25" t="str">
-        <f t="shared" ref="Q18:Q22" si="20">VLOOKUP(L18,$S$1:$V$12,4,FALSE)</f>
+        <f t="shared" ref="Q18:Q22" si="22">VLOOKUP(L18,$S$1:$V$12,4,FALSE)</f>
         <v>Betão Armado</v>
       </c>
     </row>
@@ -3959,7 +3956,7 @@
         <v>9</v>
       </c>
       <c r="D19" s="21" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>2 (Ano, Material)</v>
       </c>
       <c r="E19" s="19" t="str">
@@ -3978,7 +3975,7 @@
         <f>VLOOKUP(C19,$S$1:$V$12,4,FALSE)</f>
         <v>Betão Armado</v>
       </c>
-      <c r="J19" s="55"/>
+      <c r="J19" s="54"/>
       <c r="K19" s="18">
         <v>3</v>
       </c>
@@ -3998,11 +3995,11 @@
         <v>Arco</v>
       </c>
       <c r="P19" s="26" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>Depois de 1983</v>
       </c>
       <c r="Q19" s="26" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>Betão Armado</v>
       </c>
     </row>
@@ -4015,7 +4012,7 @@
         <v>10</v>
       </c>
       <c r="D20" s="21" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>1 (Material)</v>
       </c>
       <c r="E20" s="19" t="str">
@@ -4034,7 +4031,7 @@
         <f>VLOOKUP(C20,$S$1:$V$12,4,FALSE)</f>
         <v>Betão Armado</v>
       </c>
-      <c r="J20" s="55"/>
+      <c r="J20" s="54"/>
       <c r="K20" s="18">
         <v>9</v>
       </c>
@@ -4042,28 +4039,28 @@
         <v>6</v>
       </c>
       <c r="M20" s="21" t="str">
-        <f t="shared" ref="M20:M22" si="21">COUNTIF(O20,$O$18)+COUNTIF(P20,$P$18)+COUNTIF(Q20,$Q$18)&amp;" ("&amp; IF(O20=$O$18,"Estrutura, ","") &amp; IF(P20=$P$18,"Ano, ","") &amp;IF(Q20=$Q$18,"Material","") &amp; IF(OR(O20=$O$18,P20=$P$18,Q20=$Q$18),"","Nenhuma") &amp;")"</f>
+        <f t="shared" ref="M20:M22" si="23">COUNTIF(O20,$O$18)+COUNTIF(P20,$P$18)+COUNTIF(Q20,$Q$18)&amp;" ("&amp; IF(O20=$O$18,"Estrutura, ","") &amp; IF(P20=$P$18,"Ano, ","") &amp;IF(Q20=$Q$18,"Material","") &amp; IF(OR(O20=$O$18,P20=$P$18,Q20=$Q$18),"","Nenhuma") &amp;")"</f>
         <v>2 (Ano, Material)</v>
       </c>
       <c r="N20" s="19" t="str">
-        <f t="shared" ref="N20:N22" si="22">ROUND(K20/SUM($K$18:$K$22)*100,1) &amp;"%"</f>
+        <f t="shared" ref="N20:N22" si="24">ROUND(K20/SUM($K$18:$K$22)*100,1) &amp;"%"</f>
         <v>27,3%</v>
       </c>
       <c r="O20" s="26" t="str">
-        <f t="shared" ref="O20:O22" si="23">VLOOKUP(L20,$S$1:$V$12,2,FALSE)</f>
+        <f t="shared" ref="O20:O22" si="25">VLOOKUP(L20,$S$1:$V$12,2,FALSE)</f>
         <v>Pórtico</v>
       </c>
       <c r="P20" s="26" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>Depois de 1983</v>
       </c>
       <c r="Q20" s="26" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>Betão Armado</v>
       </c>
     </row>
     <row r="21" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="J21" s="55"/>
+      <c r="J21" s="54"/>
       <c r="K21" s="18">
         <v>1</v>
       </c>
@@ -4071,23 +4068,23 @@
         <v>9</v>
       </c>
       <c r="M21" s="21" t="str">
+        <f t="shared" si="23"/>
+        <v>1 (Material)</v>
+      </c>
+      <c r="N21" s="19" t="str">
+        <f t="shared" si="24"/>
+        <v>3%</v>
+      </c>
+      <c r="O21" s="26" t="str">
+        <f t="shared" si="25"/>
+        <v>Vãos Multiplos</v>
+      </c>
+      <c r="P21" s="26" t="str">
         <f t="shared" si="21"/>
-        <v>1 (Material)</v>
-      </c>
-      <c r="N21" s="19" t="str">
+        <v>Antes de 1983</v>
+      </c>
+      <c r="Q21" s="26" t="str">
         <f t="shared" si="22"/>
-        <v>3%</v>
-      </c>
-      <c r="O21" s="26" t="str">
-        <f t="shared" si="23"/>
-        <v>Vãos Multiplos</v>
-      </c>
-      <c r="P21" s="26" t="str">
-        <f t="shared" si="19"/>
-        <v>Antes de 1983</v>
-      </c>
-      <c r="Q21" s="26" t="str">
-        <f t="shared" si="20"/>
         <v>Betão Armado</v>
       </c>
     </row>
@@ -4118,7 +4115,7 @@
         <f>VLOOKUP(C22,$S$1:$V$12,4,FALSE)</f>
         <v>Betão Armado</v>
       </c>
-      <c r="J22" s="56"/>
+      <c r="J22" s="55"/>
       <c r="K22" s="18">
         <v>10</v>
       </c>
@@ -4126,23 +4123,23 @@
         <v>10</v>
       </c>
       <c r="M22" s="21" t="str">
+        <f t="shared" si="23"/>
+        <v>2 (Ano, Material)</v>
+      </c>
+      <c r="N22" s="19" t="str">
+        <f t="shared" si="24"/>
+        <v>30,3%</v>
+      </c>
+      <c r="O22" s="26" t="str">
+        <f t="shared" si="25"/>
+        <v>Vãos Multiplos</v>
+      </c>
+      <c r="P22" s="26" t="str">
         <f t="shared" si="21"/>
-        <v>2 (Ano, Material)</v>
-      </c>
-      <c r="N22" s="19" t="str">
+        <v>Depois de 1983</v>
+      </c>
+      <c r="Q22" s="26" t="str">
         <f t="shared" si="22"/>
-        <v>30,3%</v>
-      </c>
-      <c r="O22" s="26" t="str">
-        <f t="shared" si="23"/>
-        <v>Vãos Multiplos</v>
-      </c>
-      <c r="P22" s="26" t="str">
-        <f t="shared" si="19"/>
-        <v>Depois de 1983</v>
-      </c>
-      <c r="Q22" s="26" t="str">
-        <f t="shared" si="20"/>
         <v>Betão Armado</v>
       </c>
     </row>
@@ -4162,15 +4159,15 @@
       </c>
       <c r="E24" s="40"/>
       <c r="F24" s="25" t="str">
-        <f t="shared" ref="F24:F28" si="24">VLOOKUP(C24,$S$1:$V$12,2,FALSE)</f>
+        <f t="shared" ref="F24:F28" si="26">VLOOKUP(C24,$S$1:$V$12,2,FALSE)</f>
         <v>Pórtico</v>
       </c>
       <c r="G24" s="25" t="str">
-        <f t="shared" ref="G24:G28" si="25">VLOOKUP(C24,$S$1:$V$12,3,FALSE)</f>
+        <f t="shared" ref="G24:G28" si="27">VLOOKUP(C24,$S$1:$V$12,3,FALSE)</f>
         <v>Antes de 1983</v>
       </c>
       <c r="H24" s="25" t="str">
-        <f t="shared" ref="H24:H28" si="26">VLOOKUP(C24,$S$1:$V$12,4,FALSE)</f>
+        <f t="shared" ref="H24:H28" si="28">VLOOKUP(C24,$S$1:$V$12,4,FALSE)</f>
         <v>Betão Armado</v>
       </c>
       <c r="J24" s="52" t="s">
@@ -4192,11 +4189,11 @@
         <v>Vãos Multiplos</v>
       </c>
       <c r="P24" s="25" t="str">
-        <f t="shared" ref="P24:P29" si="27">VLOOKUP(L24,$S$1:$V$12,3,FALSE)</f>
+        <f t="shared" ref="P24:P29" si="29">VLOOKUP(L24,$S$1:$V$12,3,FALSE)</f>
         <v>Antes de 1983</v>
       </c>
       <c r="Q24" s="25" t="str">
-        <f t="shared" ref="Q24:Q29" si="28">VLOOKUP(L24,$S$1:$V$12,4,FALSE)</f>
+        <f t="shared" ref="Q24:Q29" si="30">VLOOKUP(L24,$S$1:$V$12,4,FALSE)</f>
         <v>Betão Armado</v>
       </c>
     </row>
@@ -4217,15 +4214,15 @@
         <v>140%</v>
       </c>
       <c r="F25" s="26" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>Pórtico</v>
       </c>
       <c r="G25" s="26" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>Depois de 1983</v>
       </c>
       <c r="H25" s="26" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>Betão Armado</v>
       </c>
       <c r="J25" s="52"/>
@@ -4248,11 +4245,11 @@
         <v>0</v>
       </c>
       <c r="P25" s="26" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>Antes de 1983</v>
       </c>
       <c r="Q25" s="26" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>Aço</v>
       </c>
     </row>
@@ -4265,7 +4262,7 @@
         <v>8</v>
       </c>
       <c r="D26" s="21" t="str">
-        <f t="shared" ref="D26:D28" si="29">COUNTIF(F26,$F$24)+COUNTIF(G26,$G$24)+COUNTIF(H26,$H$24)&amp;" ("&amp; IF(F26=$F$24,"Estrutura, ","") &amp; IF(G26=$G$24,"Ano, ","") &amp;IF(H26=$H$24,"Material","") &amp; IF(OR(F26=$F$24,G26=$G$24,H26=$H$24),"","Nenhuma") &amp;")"</f>
+        <f t="shared" ref="D26:D28" si="31">COUNTIF(F26,$F$24)+COUNTIF(G26,$G$24)+COUNTIF(H26,$H$24)&amp;" ("&amp; IF(F26=$F$24,"Estrutura, ","") &amp; IF(G26=$G$24,"Ano, ","") &amp;IF(H26=$H$24,"Material","") &amp; IF(OR(F26=$F$24,G26=$G$24,H26=$H$24),"","Nenhuma") &amp;")"</f>
         <v>1 (Material)</v>
       </c>
       <c r="E26" s="19" t="str">
@@ -4273,15 +4270,15 @@
         <v>20%</v>
       </c>
       <c r="F26" s="26" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>Tabuleiro simples/apoiado</v>
       </c>
       <c r="G26" s="26" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>Depois de 1983</v>
       </c>
       <c r="H26" s="26" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>Betão Armado</v>
       </c>
       <c r="J26" s="52"/>
@@ -4292,23 +4289,23 @@
         <v>3</v>
       </c>
       <c r="M26" s="21" t="str">
-        <f t="shared" ref="M26:M29" si="30">COUNTIF(O26,$O$24)+COUNTIF(P26,$P$24)+COUNTIF(Q26,$Q$24)&amp;" ("&amp; IF(O26=$O$24,"Estrutura, ","") &amp; IF(P26=$P$24,"Ano, ","") &amp;IF(Q26=$Q$24,"Material","") &amp; IF(OR(O26=$O$24,P26=$P$24,Q26=$Q$24),"","Nenhuma") &amp;")"</f>
+        <f t="shared" ref="M26:M29" si="32">COUNTIF(O26,$O$24)+COUNTIF(P26,$P$24)+COUNTIF(Q26,$Q$24)&amp;" ("&amp; IF(O26=$O$24,"Estrutura, ","") &amp; IF(P26=$P$24,"Ano, ","") &amp;IF(Q26=$Q$24,"Material","") &amp; IF(OR(O26=$O$24,P26=$P$24,Q26=$Q$24),"","Nenhuma") &amp;")"</f>
         <v>2 (Ano, Material)</v>
       </c>
       <c r="N26" s="19" t="str">
-        <f t="shared" ref="N26:N29" si="31">ROUND(K26/SUM($K$24:$K$29)*100,1) &amp;"%"</f>
+        <f t="shared" ref="N26:N29" si="33">ROUND(K26/SUM($K$24:$K$29)*100,1) &amp;"%"</f>
         <v>2,7%</v>
       </c>
       <c r="O26" s="26" t="str">
-        <f t="shared" ref="O26:O29" si="32">VLOOKUP(L26,$S$1:$V$12,2,FALSE)</f>
+        <f t="shared" ref="O26:O29" si="34">VLOOKUP(L26,$S$1:$V$12,2,FALSE)</f>
         <v>Arco</v>
       </c>
       <c r="P26" s="26" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>Antes de 1983</v>
       </c>
       <c r="Q26" s="26" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>Betão Armado</v>
       </c>
     </row>
@@ -4321,7 +4318,7 @@
         <v>9</v>
       </c>
       <c r="D27" s="21" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>2 (Ano, Material)</v>
       </c>
       <c r="E27" s="19" t="str">
@@ -4329,15 +4326,15 @@
         <v>20%</v>
       </c>
       <c r="F27" s="26" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>Vãos Multiplos</v>
       </c>
       <c r="G27" s="26" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>Antes de 1983</v>
       </c>
       <c r="H27" s="26" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>Betão Armado</v>
       </c>
       <c r="J27" s="52"/>
@@ -4348,23 +4345,23 @@
         <v>6</v>
       </c>
       <c r="M27" s="21" t="str">
+        <f t="shared" si="32"/>
+        <v>1 (Material)</v>
+      </c>
+      <c r="N27" s="19" t="str">
+        <f t="shared" si="33"/>
+        <v>2,7%</v>
+      </c>
+      <c r="O27" s="26" t="str">
+        <f t="shared" si="34"/>
+        <v>Pórtico</v>
+      </c>
+      <c r="P27" s="26" t="str">
+        <f t="shared" si="29"/>
+        <v>Depois de 1983</v>
+      </c>
+      <c r="Q27" s="26" t="str">
         <f t="shared" si="30"/>
-        <v>1 (Material)</v>
-      </c>
-      <c r="N27" s="19" t="str">
-        <f t="shared" si="31"/>
-        <v>2,7%</v>
-      </c>
-      <c r="O27" s="26" t="str">
-        <f t="shared" si="32"/>
-        <v>Pórtico</v>
-      </c>
-      <c r="P27" s="26" t="str">
-        <f t="shared" si="27"/>
-        <v>Depois de 1983</v>
-      </c>
-      <c r="Q27" s="26" t="str">
-        <f t="shared" si="28"/>
         <v>Betão Armado</v>
       </c>
     </row>
@@ -4377,7 +4374,7 @@
         <v>10</v>
       </c>
       <c r="D28" s="21" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>1 (Material)</v>
       </c>
       <c r="E28" s="19" t="str">
@@ -4385,15 +4382,15 @@
         <v>20%</v>
       </c>
       <c r="F28" s="26" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>Vãos Multiplos</v>
       </c>
       <c r="G28" s="26" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>Depois de 1983</v>
       </c>
       <c r="H28" s="26" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>Betão Armado</v>
       </c>
       <c r="J28" s="52"/>
@@ -4404,23 +4401,23 @@
         <v>8</v>
       </c>
       <c r="M28" s="21" t="str">
+        <f t="shared" si="32"/>
+        <v>1 (Material)</v>
+      </c>
+      <c r="N28" s="19" t="str">
+        <f t="shared" si="33"/>
+        <v>2,7%</v>
+      </c>
+      <c r="O28" s="26" t="str">
+        <f t="shared" si="34"/>
+        <v>Tabuleiro simples/apoiado</v>
+      </c>
+      <c r="P28" s="26" t="str">
+        <f t="shared" si="29"/>
+        <v>Depois de 1983</v>
+      </c>
+      <c r="Q28" s="26" t="str">
         <f t="shared" si="30"/>
-        <v>1 (Material)</v>
-      </c>
-      <c r="N28" s="19" t="str">
-        <f t="shared" si="31"/>
-        <v>2,7%</v>
-      </c>
-      <c r="O28" s="26" t="str">
-        <f t="shared" si="32"/>
-        <v>Tabuleiro simples/apoiado</v>
-      </c>
-      <c r="P28" s="26" t="str">
-        <f t="shared" si="27"/>
-        <v>Depois de 1983</v>
-      </c>
-      <c r="Q28" s="26" t="str">
-        <f t="shared" si="28"/>
         <v>Betão Armado</v>
       </c>
     </row>
@@ -4429,32 +4426,32 @@
       <c r="K29" s="18">
         <v>30</v>
       </c>
-      <c r="L29" s="57">
+      <c r="L29" s="18">
         <v>10</v>
       </c>
-      <c r="M29" s="58" t="str">
+      <c r="M29" s="21" t="str">
+        <f t="shared" si="32"/>
+        <v>2 (Estrutura, Material)</v>
+      </c>
+      <c r="N29" s="19" t="str">
+        <f t="shared" si="33"/>
+        <v>81,1%</v>
+      </c>
+      <c r="O29" s="26" t="str">
+        <f t="shared" si="34"/>
+        <v>Vãos Multiplos</v>
+      </c>
+      <c r="P29" s="26" t="str">
+        <f t="shared" si="29"/>
+        <v>Depois de 1983</v>
+      </c>
+      <c r="Q29" s="26" t="str">
         <f t="shared" si="30"/>
-        <v>2 (Estrutura, Material)</v>
-      </c>
-      <c r="N29" s="19" t="str">
-        <f t="shared" si="31"/>
-        <v>81,1%</v>
-      </c>
-      <c r="O29" s="26" t="str">
-        <f t="shared" si="32"/>
-        <v>Vãos Multiplos</v>
-      </c>
-      <c r="P29" s="26" t="str">
-        <f t="shared" si="27"/>
-        <v>Depois de 1983</v>
-      </c>
-      <c r="Q29" s="26" t="str">
-        <f t="shared" si="28"/>
         <v>Betão Armado</v>
       </c>
     </row>
     <row r="31" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="J31" s="54" t="s">
+      <c r="J31" s="53" t="s">
         <v>61</v>
       </c>
       <c r="K31" s="22">
@@ -4473,16 +4470,16 @@
         <v>Vãos Multiplos</v>
       </c>
       <c r="P31" s="25" t="str">
-        <f t="shared" ref="P31:P35" si="33">VLOOKUP(L31,$S$1:$V$12,3,FALSE)</f>
+        <f t="shared" ref="P31:P35" si="35">VLOOKUP(L31,$S$1:$V$12,3,FALSE)</f>
         <v>Depois de 1983</v>
       </c>
       <c r="Q31" s="25" t="str">
-        <f t="shared" ref="Q31:Q35" si="34">VLOOKUP(L31,$S$1:$V$12,4,FALSE)</f>
+        <f t="shared" ref="Q31:Q35" si="36">VLOOKUP(L31,$S$1:$V$12,4,FALSE)</f>
         <v>Betão Armado</v>
       </c>
     </row>
     <row r="32" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="J32" s="55"/>
+      <c r="J32" s="54"/>
       <c r="K32" s="18">
         <v>2</v>
       </c>
@@ -4502,16 +4499,16 @@
         <v>Arco</v>
       </c>
       <c r="P32" s="26" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>Depois de 1983</v>
       </c>
       <c r="Q32" s="26" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>Betão Armado</v>
       </c>
     </row>
     <row r="33" spans="10:17" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="J33" s="55"/>
+      <c r="J33" s="54"/>
       <c r="K33" s="18">
         <v>11</v>
       </c>
@@ -4519,28 +4516,28 @@
         <v>6</v>
       </c>
       <c r="M33" s="21" t="str">
-        <f t="shared" ref="M33:M35" si="35">COUNTIF(O33,$O$31)+COUNTIF(P33,$P$31)+COUNTIF(Q33,$Q$31)&amp;" ("&amp; IF(O33=$O$31,"Estrutura, ","") &amp; IF(P33=$P$31,"Ano, ","") &amp;IF(Q33=$Q$31,"Material","") &amp; IF(OR(O33=$O$31,P33=$P$31,Q33=$Q$31),"","Nenhuma") &amp;")"</f>
+        <f t="shared" ref="M33:M35" si="37">COUNTIF(O33,$O$31)+COUNTIF(P33,$P$31)+COUNTIF(Q33,$Q$31)&amp;" ("&amp; IF(O33=$O$31,"Estrutura, ","") &amp; IF(P33=$P$31,"Ano, ","") &amp;IF(Q33=$Q$31,"Material","") &amp; IF(OR(O33=$O$31,P33=$P$31,Q33=$Q$31),"","Nenhuma") &amp;")"</f>
         <v>2 (Ano, Material)</v>
       </c>
       <c r="N33" s="19" t="str">
-        <f t="shared" ref="N33:N35" si="36">ROUND(K33/SUM($K$31:$K$35)*100,1) &amp;"%"</f>
+        <f t="shared" ref="N33:N35" si="38">ROUND(K33/SUM($K$31:$K$35)*100,1) &amp;"%"</f>
         <v>2,8%</v>
       </c>
       <c r="O33" s="26" t="str">
-        <f t="shared" ref="O33:O35" si="37">VLOOKUP(L33,$S$1:$V$12,2,FALSE)</f>
+        <f t="shared" ref="O33:O35" si="39">VLOOKUP(L33,$S$1:$V$12,2,FALSE)</f>
         <v>Pórtico</v>
       </c>
       <c r="P33" s="26" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>Depois de 1983</v>
       </c>
       <c r="Q33" s="26" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>Betão Armado</v>
       </c>
     </row>
     <row r="34" spans="10:17" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="J34" s="55"/>
+      <c r="J34" s="54"/>
       <c r="K34" s="18">
         <v>7</v>
       </c>
@@ -4548,28 +4545,28 @@
         <v>8</v>
       </c>
       <c r="M34" s="21" t="str">
+        <f t="shared" si="37"/>
+        <v>2 (Ano, Material)</v>
+      </c>
+      <c r="N34" s="19" t="str">
+        <f t="shared" si="38"/>
+        <v>1,8%</v>
+      </c>
+      <c r="O34" s="26" t="str">
+        <f t="shared" si="39"/>
+        <v>Tabuleiro simples/apoiado</v>
+      </c>
+      <c r="P34" s="26" t="str">
         <f t="shared" si="35"/>
-        <v>2 (Ano, Material)</v>
-      </c>
-      <c r="N34" s="19" t="str">
+        <v>Depois de 1983</v>
+      </c>
+      <c r="Q34" s="26" t="str">
         <f t="shared" si="36"/>
-        <v>1,8%</v>
-      </c>
-      <c r="O34" s="26" t="str">
-        <f t="shared" si="37"/>
-        <v>Tabuleiro simples/apoiado</v>
-      </c>
-      <c r="P34" s="26" t="str">
-        <f t="shared" si="33"/>
-        <v>Depois de 1983</v>
-      </c>
-      <c r="Q34" s="26" t="str">
-        <f t="shared" si="34"/>
         <v>Betão Armado</v>
       </c>
     </row>
     <row r="35" spans="10:17" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="J35" s="56"/>
+      <c r="J35" s="55"/>
       <c r="K35" s="18">
         <v>6</v>
       </c>
@@ -4577,23 +4574,23 @@
         <v>9</v>
       </c>
       <c r="M35" s="21" t="str">
+        <f t="shared" si="37"/>
+        <v>2 (Estrutura, Material)</v>
+      </c>
+      <c r="N35" s="19" t="str">
+        <f t="shared" si="38"/>
+        <v>1,5%</v>
+      </c>
+      <c r="O35" s="26" t="str">
+        <f t="shared" si="39"/>
+        <v>Vãos Multiplos</v>
+      </c>
+      <c r="P35" s="26" t="str">
         <f t="shared" si="35"/>
-        <v>2 (Estrutura, Material)</v>
-      </c>
-      <c r="N35" s="19" t="str">
+        <v>Antes de 1983</v>
+      </c>
+      <c r="Q35" s="26" t="str">
         <f t="shared" si="36"/>
-        <v>1,5%</v>
-      </c>
-      <c r="O35" s="26" t="str">
-        <f t="shared" si="37"/>
-        <v>Vãos Multiplos</v>
-      </c>
-      <c r="P35" s="26" t="str">
-        <f t="shared" si="33"/>
-        <v>Antes de 1983</v>
-      </c>
-      <c r="Q35" s="26" t="str">
-        <f t="shared" si="34"/>
         <v>Betão Armado</v>
       </c>
     </row>

--- a/Resultados/Material + Ano + Estrutura/ResNet/Tentativa 1/Do Zero.xlsx
+++ b/Resultados/Material + Ano + Estrutura/ResNet/Tentativa 1/Do Zero.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr codeName="EsteLivro" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\beatr\Documents\GitHub\SAFENET-Bea\Resultados\Material + Ano + Estrutura\ResNet\Tentativa 1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE4CECA8-8B1B-41F8-BE4D-686BF97B853B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E12E3650-7702-4E07-95B2-68B9AB42F21E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{44EB1693-29A4-4AD6-9832-A8AEAD2DC94E}"/>
   </bookViews>
@@ -609,6 +609,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
@@ -617,9 +620,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1644,8 +1644,8 @@
   <sheetPr codeName="Folha1"/>
   <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13:E13"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1978,7 +1978,7 @@
   <sheetPr codeName="Folha12"/>
   <dimension ref="N1:O44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="O13" sqref="O13"/>
     </sheetView>
   </sheetViews>
@@ -2255,8 +2255,8 @@
   <sheetPr codeName="Folha4"/>
   <dimension ref="A1:P14"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:N14"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P15" sqref="P15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2892,39 +2892,39 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BB454C8-93BE-43D4-99C2-717E269EE6C9}">
   <dimension ref="A1:AA29"/>
   <sheetViews>
-    <sheetView topLeftCell="M1" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O23" sqref="O23"/>
+      <selection pane="bottomLeft" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="3.36328125" style="27" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.6328125" style="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.453125" style="9" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.7265625" style="27" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.81640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.54296875" style="9" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18.6328125" style="19" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.90625" style="19" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.453125" style="19" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16.26953125" style="26" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.6328125" style="26" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9" style="26" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9.6328125" customWidth="1"/>
-    <col min="10" max="10" width="3.36328125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.6328125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="6.453125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="3.7265625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6.54296875" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="18.6328125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="6.54296875" customWidth="1"/>
+    <col min="14" max="14" width="4.453125" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="16.26953125" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="9.6328125" customWidth="1"/>
     <col min="17" max="17" width="9" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="11.54296875" customWidth="1"/>
-    <col min="19" max="19" width="6.453125" style="9" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="22.26953125" style="9" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.1796875" style="9" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="12.1796875" style="9" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="6.54296875" style="9" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="22.54296875" style="9" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.453125" style="9" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="12.453125" style="9" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="8.7265625" style="9"/>
-    <col min="24" max="24" width="3.81640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="3.90625" style="9" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="18.6328125" style="19" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="4.36328125" style="9" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="4.453125" style="9" bestFit="1" customWidth="1"/>
     <col min="28" max="16384" width="8.7265625" style="9"/>
   </cols>
   <sheetData>
@@ -2971,15 +2971,15 @@
       <c r="V1" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="X1" s="57" t="s">
+      <c r="X1" s="54" t="s">
         <v>27</v>
       </c>
-      <c r="Y1" s="57"/>
-      <c r="Z1" s="57"/>
-      <c r="AA1" s="57"/>
+      <c r="Y1" s="54"/>
+      <c r="Z1" s="54"/>
+      <c r="AA1" s="54"/>
     </row>
     <row r="2" spans="1:27" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="54" t="s">
+      <c r="A2" s="55" t="s">
         <v>30</v>
       </c>
       <c r="B2" s="48">
@@ -3003,7 +3003,7 @@
         <f>VLOOKUP(C2,$S$1:$V$12,4,FALSE)</f>
         <v>Alvenaria</v>
       </c>
-      <c r="J2" s="54" t="s">
+      <c r="J2" s="55" t="s">
         <v>57</v>
       </c>
       <c r="K2" s="22">
@@ -3053,7 +3053,7 @@
       </c>
     </row>
     <row r="3" spans="1:27" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="55"/>
+      <c r="A3" s="56"/>
       <c r="B3" s="49">
         <v>3</v>
       </c>
@@ -3080,7 +3080,7 @@
         <f t="shared" ref="H3:H5" si="5">VLOOKUP(C3,$S$1:$V$12,4,FALSE)</f>
         <v>Aço</v>
       </c>
-      <c r="J3" s="55"/>
+      <c r="J3" s="56"/>
       <c r="K3" s="18">
         <v>1</v>
       </c>
@@ -3130,7 +3130,7 @@
       </c>
     </row>
     <row r="4" spans="1:27" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="55"/>
+      <c r="A4" s="56"/>
       <c r="B4" s="49">
         <v>1</v>
       </c>
@@ -3157,7 +3157,7 @@
         <f t="shared" si="5"/>
         <v>Betão Armado</v>
       </c>
-      <c r="J4" s="55"/>
+      <c r="J4" s="56"/>
       <c r="K4" s="18">
         <v>4</v>
       </c>
@@ -3207,7 +3207,7 @@
       </c>
     </row>
     <row r="5" spans="1:27" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="56"/>
+      <c r="A5" s="57"/>
       <c r="B5" s="49">
         <v>1</v>
       </c>
@@ -3234,7 +3234,7 @@
         <f t="shared" si="5"/>
         <v>Betão Armado</v>
       </c>
-      <c r="J5" s="55"/>
+      <c r="J5" s="56"/>
       <c r="K5" s="18">
         <v>7</v>
       </c>
@@ -3292,7 +3292,7 @@
       <c r="E6" s="11"/>
       <c r="F6" s="24"/>
       <c r="G6" s="24"/>
-      <c r="J6" s="56"/>
+      <c r="J6" s="57"/>
       <c r="K6" s="18">
         <v>6</v>
       </c>
@@ -3344,7 +3344,7 @@
       </c>
     </row>
     <row r="7" spans="1:27" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="54" t="s">
+      <c r="A7" s="55" t="s">
         <v>31</v>
       </c>
       <c r="B7" s="22">
@@ -3394,7 +3394,7 @@
       </c>
     </row>
     <row r="8" spans="1:27" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="56"/>
+      <c r="A8" s="57"/>
       <c r="B8" s="18">
         <v>3</v>
       </c>
@@ -3421,7 +3421,7 @@
         <f>VLOOKUP(C8,$S$1:$V$12,4,FALSE)</f>
         <v>Betão Armado</v>
       </c>
-      <c r="J8" s="54" t="s">
+      <c r="J8" s="55" t="s">
         <v>58</v>
       </c>
       <c r="K8" s="22">
@@ -3472,7 +3472,7 @@
       </c>
     </row>
     <row r="9" spans="1:27" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="J9" s="55"/>
+      <c r="J9" s="56"/>
       <c r="K9" s="18">
         <v>1</v>
       </c>
@@ -3524,7 +3524,7 @@
       </c>
     </row>
     <row r="10" spans="1:27" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="54" t="s">
+      <c r="A10" s="55" t="s">
         <v>32</v>
       </c>
       <c r="B10" s="22">
@@ -3549,7 +3549,7 @@
         <f>VLOOKUP(C10,$S$1:$V$12,4,FALSE)</f>
         <v>Aço</v>
       </c>
-      <c r="J10" s="55"/>
+      <c r="J10" s="56"/>
       <c r="K10" s="18">
         <v>2</v>
       </c>
@@ -3594,7 +3594,7 @@
       </c>
     </row>
     <row r="11" spans="1:27" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="55"/>
+      <c r="A11" s="56"/>
       <c r="B11" s="18">
         <v>4</v>
       </c>
@@ -3621,7 +3621,7 @@
         <f>VLOOKUP(C11,$S$1:$V$12,4,FALSE)</f>
         <v>Betão Armado</v>
       </c>
-      <c r="J11" s="56"/>
+      <c r="J11" s="57"/>
       <c r="K11" s="18">
         <v>6</v>
       </c>
@@ -3662,7 +3662,7 @@
       </c>
     </row>
     <row r="12" spans="1:27" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="56"/>
+      <c r="A12" s="57"/>
       <c r="B12" s="18">
         <v>1</v>
       </c>
@@ -3703,7 +3703,7 @@
       </c>
     </row>
     <row r="13" spans="1:27" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="J13" s="54" t="s">
+      <c r="J13" s="55" t="s">
         <v>59</v>
       </c>
       <c r="K13" s="22">
@@ -3731,7 +3731,7 @@
       </c>
     </row>
     <row r="14" spans="1:27" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="54" t="s">
+      <c r="A14" s="55" t="s">
         <v>37</v>
       </c>
       <c r="B14" s="22">
@@ -3757,7 +3757,7 @@
         <f t="shared" ref="H14:H17" si="20">VLOOKUP(C14,$S$1:$V$12,4,FALSE)</f>
         <v>Betão Armado</v>
       </c>
-      <c r="J14" s="55"/>
+      <c r="J14" s="56"/>
       <c r="K14" s="18">
         <v>1</v>
       </c>
@@ -3786,7 +3786,7 @@
       </c>
     </row>
     <row r="15" spans="1:27" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="55"/>
+      <c r="A15" s="56"/>
       <c r="B15" s="18">
         <v>1</v>
       </c>
@@ -3813,7 +3813,7 @@
         <f t="shared" si="20"/>
         <v>Alvenaria</v>
       </c>
-      <c r="J15" s="55"/>
+      <c r="J15" s="56"/>
       <c r="K15" s="18">
         <v>7</v>
       </c>
@@ -3842,7 +3842,7 @@
       </c>
     </row>
     <row r="16" spans="1:27" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="55"/>
+      <c r="A16" s="56"/>
       <c r="B16" s="18">
         <v>1</v>
       </c>
@@ -3869,7 +3869,7 @@
         <f t="shared" si="20"/>
         <v>Betão Armado</v>
       </c>
-      <c r="J16" s="55"/>
+      <c r="J16" s="56"/>
       <c r="K16" s="18">
         <v>3</v>
       </c>
@@ -3898,7 +3898,7 @@
       </c>
     </row>
     <row r="17" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="56"/>
+      <c r="A17" s="57"/>
       <c r="B17" s="18">
         <v>2</v>
       </c>
@@ -3925,7 +3925,7 @@
         <f t="shared" si="20"/>
         <v>Betão Armado</v>
       </c>
-      <c r="J17" s="56"/>
+      <c r="J17" s="57"/>
       <c r="K17" s="18">
         <v>16</v>
       </c>
@@ -3980,7 +3980,7 @@
         <f>VLOOKUP(C19,$S$1:$V$12,4,FALSE)</f>
         <v>Betão Armado</v>
       </c>
-      <c r="J19" s="54" t="s">
+      <c r="J19" s="55" t="s">
         <v>60</v>
       </c>
       <c r="K19" s="22">
@@ -4008,7 +4008,7 @@
       </c>
     </row>
     <row r="20" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="J20" s="55"/>
+      <c r="J20" s="56"/>
       <c r="K20" s="18">
         <v>1</v>
       </c>
@@ -4037,7 +4037,7 @@
       </c>
     </row>
     <row r="21" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="54" t="s">
+      <c r="A21" s="55" t="s">
         <v>56</v>
       </c>
       <c r="B21" s="22">
@@ -4063,7 +4063,7 @@
         <f t="shared" ref="H21:H24" si="27">VLOOKUP(C21,$S$1:$V$12,4,FALSE)</f>
         <v>Betão Armado</v>
       </c>
-      <c r="J21" s="55"/>
+      <c r="J21" s="56"/>
       <c r="K21" s="18">
         <v>2</v>
       </c>
@@ -4092,7 +4092,7 @@
       </c>
     </row>
     <row r="22" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="55"/>
+      <c r="A22" s="56"/>
       <c r="B22" s="18">
         <v>6</v>
       </c>
@@ -4119,7 +4119,7 @@
         <f t="shared" si="27"/>
         <v>Betão Armado</v>
       </c>
-      <c r="J22" s="55"/>
+      <c r="J22" s="56"/>
       <c r="K22" s="18">
         <v>1</v>
       </c>
@@ -4148,7 +4148,7 @@
       </c>
     </row>
     <row r="23" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="55"/>
+      <c r="A23" s="56"/>
       <c r="B23" s="18">
         <v>2</v>
       </c>
@@ -4175,7 +4175,7 @@
         <f t="shared" si="27"/>
         <v>Betão Armado</v>
       </c>
-      <c r="J23" s="56"/>
+      <c r="J23" s="57"/>
       <c r="K23" s="18">
         <v>33</v>
       </c>
@@ -4204,7 +4204,7 @@
       </c>
     </row>
     <row r="24" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="56"/>
+      <c r="A24" s="57"/>
       <c r="B24" s="18">
         <v>1</v>
       </c>
@@ -4233,7 +4233,7 @@
       </c>
     </row>
     <row r="25" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="J25" s="54" t="s">
+      <c r="J25" s="55" t="s">
         <v>61</v>
       </c>
       <c r="K25" s="22">
@@ -4261,7 +4261,7 @@
       </c>
     </row>
     <row r="26" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="J26" s="55"/>
+      <c r="J26" s="56"/>
       <c r="K26" s="18">
         <v>1</v>
       </c>
@@ -4290,7 +4290,7 @@
       </c>
     </row>
     <row r="27" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="J27" s="55"/>
+      <c r="J27" s="56"/>
       <c r="K27" s="18">
         <v>3</v>
       </c>
@@ -4319,7 +4319,7 @@
       </c>
     </row>
     <row r="28" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="J28" s="55"/>
+      <c r="J28" s="56"/>
       <c r="K28" s="18">
         <v>5</v>
       </c>
@@ -4348,7 +4348,7 @@
       </c>
     </row>
     <row r="29" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="J29" s="56"/>
+      <c r="J29" s="57"/>
       <c r="K29" s="18">
         <v>1</v>
       </c>
@@ -4378,17 +4378,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A21:A24"/>
+    <mergeCell ref="J2:J6"/>
+    <mergeCell ref="J8:J11"/>
+    <mergeCell ref="J19:J23"/>
+    <mergeCell ref="J25:J29"/>
     <mergeCell ref="X1:AA1"/>
     <mergeCell ref="J13:J17"/>
     <mergeCell ref="A2:A5"/>
     <mergeCell ref="A7:A8"/>
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A14:A17"/>
-    <mergeCell ref="A21:A24"/>
-    <mergeCell ref="J2:J6"/>
-    <mergeCell ref="J8:J11"/>
-    <mergeCell ref="J19:J23"/>
-    <mergeCell ref="J25:J29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4401,22 +4401,22 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B2" sqref="B2:E12"/>
+      <selection pane="topRight" activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.7265625" style="14" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.81640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.1796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.54296875" style="14" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.90625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.81640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.36328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.26953125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8.54296875" style="31" customWidth="1"/>
     <col min="7" max="7" width="12.6328125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.54296875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.1796875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.7265625" style="9" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="105.1796875" style="33" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.36328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.08984375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.08984375" style="9" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.08984375" style="33" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.35">
